--- a/excel_file/vendedores_controle_junho.xlsx
+++ b/excel_file/vendedores_controle_junho.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="199">
   <si>
     <t xml:space="preserve">DATA</t>
   </si>
@@ -131,16 +131,10 @@
     <t xml:space="preserve">SMART EMPRESAS 6GB </t>
   </si>
   <si>
-    <t xml:space="preserve">LINHA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Receita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajuste Delta Migrações</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valor Final</t>
+    <t xml:space="preserve">07/06/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/06/25</t>
   </si>
   <si>
     <t xml:space="preserve">ANDERSON COSTA</t>
@@ -149,21 +143,12 @@
     <t xml:space="preserve">CAMILA PONDE </t>
   </si>
   <si>
-    <t xml:space="preserve"> R$ -   </t>
-  </si>
-  <si>
     <t xml:space="preserve">8.30686E+12</t>
   </si>
   <si>
     <t xml:space="preserve">IVAN </t>
   </si>
   <si>
-    <t xml:space="preserve">VIVO TOTAL FAM 2 / FAM 3 - 500MB [FIXA]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIXA VT</t>
-  </si>
-  <si>
     <t xml:space="preserve">JOSEMEIRE </t>
   </si>
   <si>
@@ -179,27 +164,12 @@
     <t xml:space="preserve">RAILLANE </t>
   </si>
   <si>
-    <t xml:space="preserve">R$ 60.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 4.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 64.00 </t>
-  </si>
-  <si>
     <t xml:space="preserve">THAIS </t>
   </si>
   <si>
     <t xml:space="preserve">EVERTON</t>
   </si>
   <si>
-    <t xml:space="preserve">R$ 50.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 50.00 </t>
-  </si>
-  <si>
     <t xml:space="preserve">ANAILDES</t>
   </si>
   <si>
@@ -215,36 +185,15 @@
     <t xml:space="preserve">SAMI MELO</t>
   </si>
   <si>
-    <t xml:space="preserve">TV AVANÇADA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIXO / TV</t>
-  </si>
-  <si>
     <t xml:space="preserve">LAIS ANUNCIACAO</t>
   </si>
   <si>
     <t xml:space="preserve">SELFIE PREMIER</t>
   </si>
   <si>
-    <t xml:space="preserve">R$ 180.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-R$ 10.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 170.00 </t>
-  </si>
-  <si>
     <t xml:space="preserve">GRAZIELA</t>
   </si>
   <si>
-    <t xml:space="preserve">GHRAZIELA </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 60.00 </t>
-  </si>
-  <si>
     <t xml:space="preserve">DEISE BRITO </t>
   </si>
   <si>
@@ -260,6 +209,24 @@
     <t xml:space="preserve">CLERIA SILVA DOS SANTOS</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMANTHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portabilidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THIAGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAIS BRAGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JULIANA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMERSON </t>
+  </si>
+  <si>
     <t xml:space="preserve">01/06/25</t>
   </si>
   <si>
@@ -314,6 +281,15 @@
     <t xml:space="preserve">ANA LICE</t>
   </si>
   <si>
+    <t xml:space="preserve">08/06/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FATIMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHEFANE </t>
+  </si>
+  <si>
     <t xml:space="preserve">CAROLINE ARGOLO</t>
   </si>
   <si>
@@ -329,9 +305,6 @@
     <t xml:space="preserve">barbara</t>
   </si>
   <si>
-    <t xml:space="preserve">Portabilidade</t>
-  </si>
-  <si>
     <t xml:space="preserve">maria</t>
   </si>
   <si>
@@ -389,6 +362,51 @@
     <t xml:space="preserve">VIVO TOTAL ESSENCIAL BÁSSICO 200MB</t>
   </si>
   <si>
+    <t xml:space="preserve">daniele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edgAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDGAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TALITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80888E+13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFC EXPRESSO LAURO DE FREITAS LTDA ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jailton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JULIANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sergio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROLE 8GB PLN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lorival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loriva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dineia</t>
+  </si>
+  <si>
     <t xml:space="preserve">DAVID GUSTAVO</t>
   </si>
   <si>
@@ -404,9 +422,6 @@
     <t xml:space="preserve">Fernanda</t>
   </si>
   <si>
-    <t xml:space="preserve">Newton</t>
-  </si>
-  <si>
     <t xml:space="preserve">Carla</t>
   </si>
   <si>
@@ -467,12 +482,45 @@
     <t xml:space="preserve">FAMILIA 60GB </t>
   </si>
   <si>
+    <t xml:space="preserve">Geraldina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antonio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damião</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROLE 15GB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Paula / Rony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIVO SELFIE AMAZON PRIME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ainara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROLE EDUCAÇÃO 13GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marivaldo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valmira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alta</t>
+  </si>
+  <si>
     <t xml:space="preserve">DEBORA RIBEIRO</t>
   </si>
   <si>
-    <t xml:space="preserve">VIVO SELFIE AMAZON PRIME </t>
-  </si>
-  <si>
     <t xml:space="preserve">55.813.419/0001-54</t>
   </si>
   <si>
@@ -546,6 +594,36 @@
   </si>
   <si>
     <t xml:space="preserve">SANDRO DOS SANTOS FERREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JORGE SANTANA DOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAUA PITTER TEXEIRA JESUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIBELE MATIAS FRITZ JACQUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04104E+13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LYRA BAHIA MOVEIS LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALDA DE FREITAS VELLOSO MACHADO DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAIARA RIBEIRO COSTA ANUCIACAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSIANE DOS SANTOS BATISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERA LUCIA SOUZA DE JESUS</t>
   </si>
 </sst>
 </file>
@@ -623,7 +701,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -662,6 +740,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -856,7 +938,7 @@
   <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1933,15 +2015,23 @@
       <c r="N40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="A41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -1949,15 +2039,25 @@
       <c r="N41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="A42" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="3" t="n">
+        <v>82582734500</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -1965,15 +2065,27 @@
       <c r="N42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="A43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="3" t="n">
+        <v>82582734500</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -1981,15 +2093,25 @@
       <c r="N43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
+      <c r="A44" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="3" t="n">
+        <v>54440181520</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -1997,15 +2119,27 @@
       <c r="N44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
+      <c r="A45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="3" t="n">
+        <v>11089857500</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
@@ -2013,15 +2147,27 @@
       <c r="N45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
+      <c r="A46" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="3" t="n">
+        <v>6343089551</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -2029,15 +2175,23 @@
       <c r="N46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
+      <c r="A47" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -2214,46 +2368,24 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2261,7 +2393,7 @@
         <v>4161978502</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>19</v>
@@ -2271,47 +2403,33 @@
         <v>18</v>
       </c>
       <c r="M2" s="7"/>
-      <c r="N2" s="8" t="n">
-        <v>4161978502</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
-      <c r="R2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
       <c r="T2" s="4"/>
-      <c r="U2" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U2" s="4"/>
       <c r="V2" s="4"/>
-      <c r="W2" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="3" t="n">
         <v>71996999215</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>20</v>
@@ -2320,42 +2438,24 @@
       <c r="I3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="8" t="n">
-        <v>71996999215</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
-      <c r="R3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
       <c r="T3" s="4"/>
-      <c r="U3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="3" t="n">
@@ -2365,7 +2465,7 @@
         <v>2672115540</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>31</v>
@@ -2374,40 +2474,24 @@
       <c r="I4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="8" t="n">
-        <v>71987610586</v>
-      </c>
-      <c r="N4" s="8" t="n">
-        <v>2672115540</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
       <c r="T4" s="4"/>
-      <c r="U4" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U4" s="4"/>
       <c r="V4" s="4"/>
-      <c r="W4" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="3" t="n">
@@ -2417,7 +2501,7 @@
         <v>78442036504</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>31</v>
@@ -2426,40 +2510,24 @@
       <c r="I5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="8" t="n">
-        <v>71986295907</v>
-      </c>
-      <c r="N5" s="8" t="n">
-        <v>78442036504</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
-      <c r="R5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
       <c r="T5" s="4"/>
-      <c r="U5" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U5" s="4"/>
       <c r="V5" s="4"/>
-      <c r="W5" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="3" t="n">
@@ -2469,7 +2537,7 @@
         <v>19421990587</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>20</v>
@@ -2478,42 +2546,24 @@
       <c r="I6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="8" t="n">
-        <v>71999042511</v>
-      </c>
-      <c r="N6" s="8" t="n">
-        <v>19421990587</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="9" t="n">
@@ -2523,7 +2573,7 @@
         <v>19421990587</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>21</v>
@@ -2532,38 +2582,22 @@
       <c r="I7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="8" t="n">
-        <v>71999042511</v>
-      </c>
-      <c r="N7" s="8" t="n">
-        <v>19421990587</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
       <c r="T7" s="4"/>
-      <c r="U7" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U7" s="4"/>
       <c r="V7" s="4"/>
-      <c r="W7" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -2579,27 +2613,19 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
       <c r="T8" s="4"/>
-      <c r="U8" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U8" s="4"/>
       <c r="V8" s="4"/>
-      <c r="W8" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="3" t="n">
@@ -2609,7 +2635,7 @@
         <v>45374635549</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>31</v>
@@ -2618,40 +2644,24 @@
       <c r="I9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="8" t="n">
-        <v>71999769815</v>
-      </c>
-      <c r="N9" s="8" t="n">
-        <v>45374635549</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
       <c r="T9" s="4"/>
-      <c r="U9" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U9" s="4"/>
       <c r="V9" s="4"/>
-      <c r="W9" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="3" t="n">
@@ -2661,7 +2671,7 @@
         <v>10640748554</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>12</v>
@@ -2672,44 +2682,24 @@
       <c r="I10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="8" t="n">
-        <v>71999744946</v>
-      </c>
-      <c r="N10" s="8" t="n">
-        <v>10640748554</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
       <c r="V10" s="4"/>
-      <c r="W10" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="3" t="n">
@@ -2719,7 +2709,7 @@
         <v>85929541507</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>12</v>
@@ -2730,44 +2720,24 @@
       <c r="I11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="8" t="n">
-        <v>71997300473</v>
-      </c>
-      <c r="N11" s="8" t="n">
-        <v>85929541507</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
       <c r="V11" s="4"/>
-      <c r="W11" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="3" t="n">
@@ -2777,7 +2747,7 @@
         <v>2040006532</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>12</v>
@@ -2788,42 +2758,24 @@
       <c r="I12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="8" t="n">
-        <v>71999710112</v>
-      </c>
-      <c r="N12" s="8" t="n">
-        <v>2040006532</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="U12" s="4"/>
       <c r="V12" s="4"/>
-      <c r="W12" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -2839,25 +2791,17 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
       <c r="T13" s="4"/>
-      <c r="U13" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U13" s="4"/>
       <c r="V13" s="4"/>
-      <c r="W13" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -2873,27 +2817,19 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
       <c r="T14" s="4"/>
-      <c r="U14" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U14" s="4"/>
       <c r="V14" s="4"/>
-      <c r="W14" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="3" t="n">
@@ -2903,7 +2839,7 @@
         <v>26888351572</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>17</v>
@@ -2912,40 +2848,24 @@
       <c r="I15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="8" t="n">
-        <v>71996060947</v>
-      </c>
-      <c r="N15" s="8" t="n">
-        <v>26888351572</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
-      <c r="R15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
       <c r="T15" s="4"/>
-      <c r="U15" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U15" s="4"/>
       <c r="V15" s="4"/>
-      <c r="W15" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="9" t="n">
@@ -2955,7 +2875,7 @@
         <v>26888351572</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>19</v>
@@ -2964,40 +2884,24 @@
       <c r="I16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M16" s="8" t="n">
-        <v>71996060947</v>
-      </c>
-      <c r="N16" s="8" t="n">
-        <v>26888351572</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
-      <c r="R16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
       <c r="T16" s="4"/>
-      <c r="U16" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U16" s="4"/>
       <c r="V16" s="4"/>
-      <c r="W16" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="9" t="n">
@@ -3007,49 +2911,33 @@
         <v>26888351572</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M17" s="8" t="n">
-        <v>71996060947</v>
-      </c>
-      <c r="N17" s="8" t="n">
-        <v>26888351572</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
       <c r="T17" s="4"/>
-      <c r="U17" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U17" s="4"/>
       <c r="V17" s="4"/>
-      <c r="W17" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="9" t="n">
@@ -3059,49 +2947,33 @@
         <v>26888351572</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="8" t="n">
-        <v>71996060947</v>
-      </c>
-      <c r="N18" s="8" t="n">
-        <v>26888351572</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
       <c r="T18" s="4"/>
-      <c r="U18" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U18" s="4"/>
       <c r="V18" s="4"/>
-      <c r="W18" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="3" t="n">
@@ -3111,7 +2983,7 @@
         <v>19528426549</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>17</v>
@@ -3120,40 +2992,24 @@
       <c r="I19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="8" t="n">
-        <v>71987453256</v>
-      </c>
-      <c r="N19" s="8" t="n">
-        <v>19528426549</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
       <c r="T19" s="4"/>
-      <c r="U19" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U19" s="4"/>
       <c r="V19" s="4"/>
-      <c r="W19" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="3" t="n">
@@ -3163,7 +3019,7 @@
         <v>19528426549</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>19</v>
@@ -3172,40 +3028,24 @@
       <c r="I20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M20" s="8" t="n">
-        <v>71987453256</v>
-      </c>
-      <c r="N20" s="8" t="n">
-        <v>19528426549</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
       <c r="T20" s="4"/>
-      <c r="U20" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U20" s="4"/>
       <c r="V20" s="4"/>
-      <c r="W20" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="3" t="n">
@@ -3215,7 +3055,7 @@
         <v>71987453256</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>31</v>
@@ -3224,40 +3064,24 @@
       <c r="I21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M21" s="8" t="n">
-        <v>71987453256</v>
-      </c>
-      <c r="N21" s="8" t="n">
-        <v>71987453256</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
       <c r="T21" s="4"/>
-      <c r="U21" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U21" s="4"/>
       <c r="V21" s="4"/>
-      <c r="W21" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="3" t="n">
@@ -3267,7 +3091,7 @@
         <v>79127517500</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>17</v>
@@ -3276,40 +3100,24 @@
       <c r="I22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M22" s="8" t="n">
-        <v>71996555747</v>
-      </c>
-      <c r="N22" s="8" t="n">
-        <v>79127517500</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
-      <c r="R22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S22" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
       <c r="T22" s="4"/>
-      <c r="U22" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U22" s="4"/>
       <c r="V22" s="4"/>
-      <c r="W22" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="3" t="n">
@@ -3319,7 +3127,7 @@
         <v>79127517500</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>19</v>
@@ -3328,40 +3136,24 @@
       <c r="I23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M23" s="8" t="n">
-        <v>71996555747</v>
-      </c>
-      <c r="N23" s="8" t="n">
-        <v>79127517500</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
-      <c r="R23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S23" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
       <c r="T23" s="4"/>
-      <c r="U23" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U23" s="4"/>
       <c r="V23" s="4"/>
-      <c r="W23" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="3" t="n">
@@ -3371,7 +3163,7 @@
         <v>79127517500</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>19</v>
@@ -3380,40 +3172,24 @@
       <c r="I24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M24" s="8" t="n">
-        <v>71996555747</v>
-      </c>
-      <c r="N24" s="8" t="n">
-        <v>79127517500</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S24" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
       <c r="T24" s="4"/>
-      <c r="U24" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U24" s="4"/>
       <c r="V24" s="4"/>
-      <c r="W24" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="3" t="n">
@@ -3423,7 +3199,7 @@
         <v>79127517500</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>19</v>
@@ -3432,40 +3208,24 @@
       <c r="I25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M25" s="8" t="n">
-        <v>71996555747</v>
-      </c>
-      <c r="N25" s="8" t="n">
-        <v>79127517500</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S25" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
       <c r="T25" s="4"/>
-      <c r="U25" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U25" s="4"/>
       <c r="V25" s="4"/>
-      <c r="W25" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="3" t="n">
@@ -3475,7 +3235,7 @@
         <v>91155827520</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>20</v>
@@ -3484,40 +3244,22 @@
       <c r="I26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M26" s="8" t="n">
-        <v>71999723399</v>
-      </c>
-      <c r="N26" s="8" t="n">
-        <v>91155827520</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
-      <c r="R26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S26" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
       <c r="T26" s="4"/>
-      <c r="U26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="V26" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="W26" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6"/>
       <c r="B27" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -3533,25 +3275,17 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
-      <c r="R27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S27" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
       <c r="T27" s="4"/>
-      <c r="U27" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U27" s="4"/>
       <c r="V27" s="4"/>
-      <c r="W27" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6"/>
       <c r="B28" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -3567,27 +3301,19 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
-      <c r="R28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S28" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
       <c r="T28" s="4"/>
-      <c r="U28" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U28" s="4"/>
       <c r="V28" s="4"/>
-      <c r="W28" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="3" t="n">
@@ -3597,55 +3323,35 @@
         <v>3570729524</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M29" s="8" t="n">
-        <v>71997242012</v>
-      </c>
-      <c r="N29" s="8" t="n">
-        <v>3570729524</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="S29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="T29" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="U29" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
       <c r="V29" s="4"/>
-      <c r="W29" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="3" t="n">
@@ -3655,7 +3361,7 @@
         <v>2597528510</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>12</v>
@@ -3666,42 +3372,24 @@
       <c r="I30" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M30" s="8" t="n">
-        <v>71997341358</v>
-      </c>
-      <c r="N30" s="8" t="n">
-        <v>2597528510</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="S30" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
       <c r="T30" s="4"/>
-      <c r="U30" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="U30" s="4"/>
       <c r="V30" s="4"/>
-      <c r="W30" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="3" t="n">
@@ -3711,7 +3399,7 @@
         <v>80449255549</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>31</v>
@@ -3720,40 +3408,24 @@
       <c r="I31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M31" s="8" t="n">
-        <v>71996290057</v>
-      </c>
-      <c r="N31" s="8" t="n">
-        <v>80449255549</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
-      <c r="R31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S31" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
       <c r="T31" s="4"/>
-      <c r="U31" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U31" s="4"/>
       <c r="V31" s="4"/>
-      <c r="W31" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="3" t="n">
@@ -3763,7 +3435,7 @@
         <v>85995129511</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>12</v>
@@ -3779,27 +3451,19 @@
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
-      <c r="R32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S32" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
       <c r="T32" s="4"/>
-      <c r="U32" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U32" s="4"/>
       <c r="V32" s="4"/>
-      <c r="W32" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="3" t="n">
@@ -3809,10 +3473,10 @@
         <v>4458122576</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="3" t="s">
@@ -3823,27 +3487,19 @@
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
-      <c r="R33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S33" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U33" s="4"/>
       <c r="V33" s="4"/>
-      <c r="W33" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -3851,10 +3507,10 @@
         <v>22007253534</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="3" t="s">
@@ -3865,25 +3521,17 @@
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
-      <c r="R34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S34" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
       <c r="T34" s="4"/>
-      <c r="U34" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U34" s="4"/>
       <c r="V34" s="4"/>
-      <c r="W34" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="B35" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -3899,27 +3547,19 @@
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
-      <c r="R35" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S35" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
       <c r="T35" s="4"/>
-      <c r="U35" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U35" s="4"/>
       <c r="V35" s="4"/>
-      <c r="W35" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="3" t="n">
@@ -3929,7 +3569,7 @@
         <v>40621049549</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>20</v>
@@ -3943,335 +3583,546 @@
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
-      <c r="R36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S36" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
       <c r="T36" s="4"/>
-      <c r="U36" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U36" s="4"/>
       <c r="V36" s="4"/>
-      <c r="W36" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="3" t="n">
+        <v>71999001598</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>2659826501</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
-      <c r="R37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S37" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
       <c r="T37" s="4"/>
-      <c r="U37" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U37" s="4"/>
       <c r="V37" s="4"/>
-      <c r="W37" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="3" t="n">
+        <v>71999001598</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>2659826501</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
-      <c r="R38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S38" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
       <c r="T38" s="4"/>
-      <c r="U38" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U38" s="4"/>
       <c r="V38" s="4"/>
-      <c r="W38" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="3" t="n">
+        <v>71999001598</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>2659826501</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
-      <c r="R39" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S39" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
       <c r="T39" s="4"/>
-      <c r="U39" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U39" s="4"/>
       <c r="V39" s="4"/>
-      <c r="W39" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="3" t="n">
+        <v>71999496708</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>3496547510</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
-      <c r="R40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S40" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
       <c r="T40" s="4"/>
-      <c r="U40" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U40" s="4"/>
       <c r="V40" s="4"/>
-      <c r="W40" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="3" t="n">
+        <v>71999496708</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>3496547510</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
-      <c r="R41" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S41" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
       <c r="T41" s="4"/>
-      <c r="U41" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U41" s="4"/>
       <c r="V41" s="4"/>
-      <c r="W41" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="3" t="n">
+        <v>71999496708</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>3496547510</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
-      <c r="R42" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S42" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
       <c r="T42" s="4"/>
-      <c r="U42" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U42" s="4"/>
       <c r="V42" s="4"/>
-      <c r="W42" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="3" t="n">
+        <v>71999496708</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>3496547510</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
-      <c r="R43" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S43" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
       <c r="T43" s="4"/>
-      <c r="U43" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U43" s="4"/>
       <c r="V43" s="4"/>
-      <c r="W43" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6"/>
+      <c r="B44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
-      <c r="R44" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S44" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
       <c r="T44" s="4"/>
-      <c r="U44" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U44" s="4"/>
       <c r="V44" s="4"/>
-      <c r="W44" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="3" t="n">
+        <v>53984449951</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>2801300071</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
-      <c r="R45" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S45" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
       <c r="T45" s="4"/>
-      <c r="U45" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U45" s="4"/>
       <c r="V45" s="4"/>
-      <c r="W45" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="3" t="n">
+        <v>53984449951</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>2801300071</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
-      <c r="R46" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S46" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
       <c r="T46" s="4"/>
-      <c r="U46" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U46" s="4"/>
       <c r="V46" s="4"/>
-      <c r="W46" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="3" t="n">
+        <v>71987004703</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>2385108593</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
-      <c r="R47" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S47" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
       <c r="T47" s="4"/>
-      <c r="U47" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U47" s="4"/>
       <c r="V47" s="4"/>
-      <c r="W47" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="3" t="n">
+        <v>71996766461</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>37838865387</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
-      <c r="R48" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S48" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
       <c r="T48" s="4"/>
-      <c r="U48" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U48" s="4"/>
       <c r="V48" s="4"/>
-      <c r="W48" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="3" t="n">
+        <v>71996766461</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>37838865387</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
-      <c r="R49" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S49" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
       <c r="T49" s="4"/>
-      <c r="U49" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U49" s="4"/>
       <c r="V49" s="4"/>
-      <c r="W49" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="3" t="n">
+        <v>71996766461</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>37838865387</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
-      <c r="R50" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S50" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
       <c r="T50" s="4"/>
-      <c r="U50" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U50" s="4"/>
       <c r="V50" s="4"/>
-      <c r="W50" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="3" t="n">
+        <v>71996766461</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>37838865387</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
-      <c r="R51" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S51" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
       <c r="T51" s="4"/>
-      <c r="U51" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U51" s="4"/>
       <c r="V51" s="4"/>
-      <c r="W51" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M52" s="7"/>
@@ -4279,20 +4130,12 @@
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
-      <c r="R52" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S52" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
       <c r="T52" s="4"/>
-      <c r="U52" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U52" s="4"/>
       <c r="V52" s="4"/>
-      <c r="W52" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="W52" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4311,10 +4154,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4355,10 +4198,10 @@
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="3" t="n">
@@ -4368,7 +4211,7 @@
         <v>24221066504</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>12</v>
@@ -4382,10 +4225,10 @@
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="3" t="n">
@@ -4395,7 +4238,7 @@
         <v>58222952587</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>17</v>
@@ -4410,7 +4253,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="3" t="n">
@@ -4420,13 +4263,13 @@
         <v>2615247557</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>24</v>
@@ -4437,7 +4280,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="3" t="n">
@@ -4447,7 +4290,7 @@
         <v>2615247557</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>21</v>
@@ -4462,7 +4305,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="3" t="n">
@@ -4472,7 +4315,7 @@
         <v>71981877126</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>12</v>
@@ -4489,7 +4332,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="3" t="n">
@@ -4499,7 +4342,7 @@
         <v>1745971505</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>12</v>
@@ -4516,7 +4359,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="3" t="n">
@@ -4526,7 +4369,7 @@
         <v>64563774553</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>17</v>
@@ -4541,7 +4384,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="3" t="n">
@@ -4551,7 +4394,7 @@
         <v>12188899504</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>12</v>
@@ -4568,7 +4411,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="3" t="n">
@@ -4578,7 +4421,7 @@
         <v>6869354545</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>12</v>
@@ -4595,7 +4438,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="3" t="n">
@@ -4605,13 +4448,13 @@
         <v>7109880524</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>24</v>
@@ -4622,7 +4465,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="3" t="n">
@@ -4632,13 +4475,13 @@
         <v>58028536549</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>24</v>
@@ -4649,7 +4492,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="3" t="n">
@@ -4659,7 +4502,7 @@
         <v>12126105555</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>12</v>
@@ -4676,7 +4519,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="3" t="n">
@@ -4686,7 +4529,7 @@
         <v>12126105555</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>31</v>
@@ -4701,7 +4544,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="3" t="n">
@@ -4711,7 +4554,7 @@
         <v>2888038501</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>12</v>
@@ -4728,7 +4571,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="3" t="n">
@@ -4738,7 +4581,7 @@
         <v>22007253534</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>17</v>
@@ -4753,7 +4596,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="3" t="n">
@@ -4763,7 +4606,7 @@
         <v>22007253534</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>19</v>
@@ -4778,7 +4621,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="3" t="n">
@@ -4788,7 +4631,7 @@
         <v>22007253534</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>19</v>
@@ -4803,7 +4646,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -4811,7 +4654,7 @@
         <v>11276622520</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>17</v>
@@ -4826,7 +4669,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -4834,7 +4677,7 @@
         <v>11276622520</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>19</v>
@@ -4844,7 +4687,99 @@
         <v>18</v>
       </c>
     </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="3" t="n">
+        <v>71999260440</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>8888617531</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4861,10 +4796,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4905,15 +4840,15 @@
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="3" t="s">
@@ -4926,15 +4861,15 @@
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="3" t="s">
@@ -4947,15 +4882,15 @@
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="3" t="s">
@@ -4968,15 +4903,15 @@
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="3" t="s">
@@ -4989,19 +4924,19 @@
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="3" t="s">
@@ -5010,19 +4945,19 @@
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="3" t="s">
@@ -5031,18 +4966,20 @@
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="9" t="s">
-        <v>96</v>
+      <c r="E8" s="9" t="n">
+        <v>1624583555</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="G8" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="3" t="s">
         <v>18</v>
@@ -5053,7 +4990,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="3" t="n">
@@ -5063,7 +5000,7 @@
         <v>86381434511</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>12</v>
@@ -5080,7 +5017,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="3" t="n">
@@ -5088,13 +5025,13 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>24</v>
@@ -5105,7 +5042,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="3" t="n">
@@ -5115,7 +5052,7 @@
         <v>49982427504</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>21</v>
@@ -5130,7 +5067,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="3" t="n">
@@ -5140,7 +5077,7 @@
         <v>40493962549</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>12</v>
@@ -5157,7 +5094,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="3" t="n">
@@ -5167,7 +5104,7 @@
         <v>2642837599</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>21</v>
@@ -5182,7 +5119,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -5203,7 +5140,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -5211,10 +5148,10 @@
         <v>9887652504</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="3" t="s">
@@ -5226,7 +5163,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="3" t="n">
@@ -5236,13 +5173,13 @@
         <v>50695878549</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>24</v>
@@ -5253,7 +5190,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -5261,7 +5198,7 @@
         <v>50695878549</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>31</v>
@@ -5276,7 +5213,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -5284,13 +5221,13 @@
         <v>70579490572</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>24</v>
@@ -5301,12 +5238,12 @@
         <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="3" t="s">
@@ -5324,7 +5261,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -5332,7 +5269,7 @@
         <v>29236070582</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>21</v>
@@ -5347,7 +5284,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -5355,13 +5292,13 @@
         <v>53879430500</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>24</v>
@@ -5372,7 +5309,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -5380,10 +5317,10 @@
         <v>88408698591</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="3" t="s">
@@ -5395,7 +5332,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -5403,7 +5340,7 @@
         <v>79173543500</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>17</v>
@@ -5418,7 +5355,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -5426,7 +5363,7 @@
         <v>79173543500</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>19</v>
@@ -5441,7 +5378,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -5449,7 +5386,7 @@
         <v>79173543500</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>19</v>
@@ -5464,7 +5401,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -5481,7 +5418,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -5489,7 +5426,7 @@
         <v>6107274510</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>20</v>
@@ -5504,7 +5441,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -5525,7 +5462,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -5534,10 +5471,10 @@
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>14</v>
@@ -5548,7 +5485,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -5556,10 +5493,10 @@
         <v>36257583420</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="3" t="s">
@@ -5571,7 +5508,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -5579,7 +5516,7 @@
         <v>63027976591</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>20</v>
@@ -5592,7 +5529,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -5600,13 +5537,13 @@
         <v>63027976591</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>24</v>
@@ -5617,7 +5554,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -5625,16 +5562,643 @@
         <v>63027976591</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="3" t="n">
+        <v>6434610513</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="3" t="n">
+        <v>11205768572</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="3" t="n">
+        <v>11205768572</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="3" t="n">
+        <v>8721618542</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="3" t="n">
+        <v>8721618542</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="3" t="n">
+        <v>91386845515</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="3" t="n">
+        <v>91386845515</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="3" t="n">
+        <v>91386845515</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="3" t="n">
+        <v>91386845515</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="3" t="n">
+        <v>91386845515</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="3" t="n">
+        <v>2385108593</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="3" t="n">
+        <v>2385108593</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="3" t="n">
+        <v>2385108593</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="3" t="n">
+        <v>2385108593</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="3" t="n">
+        <v>2385108593</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="3" t="n">
+        <v>56924488587</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="3" t="n">
+        <v>1163333590</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="3" t="n">
+        <v>19692757587</v>
+      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="3" t="n">
+        <v>72616369591</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="3" t="n">
+        <v>72616369591</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="6"/>
+      <c r="I54" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="3" t="n">
+        <v>27254208572</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="6"/>
+      <c r="I55" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="3" t="n">
+        <v>27254208572</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="6"/>
+      <c r="I56" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="3" t="n">
+        <v>80735487553</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="3" t="n">
+        <v>15750434591</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="3" t="n">
+        <v>15750434591</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="6"/>
+      <c r="I59" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="3" t="n">
+        <v>15750434591</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -5654,10 +6218,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5698,10 +6262,10 @@
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -5709,7 +6273,7 @@
         <v>31340423553</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>17</v>
@@ -5721,10 +6285,10 @@
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -5732,13 +6296,13 @@
         <v>5110716552</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>24</v>
@@ -5746,10 +6310,10 @@
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -5757,13 +6321,13 @@
         <v>93358997553</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>24</v>
@@ -5771,10 +6335,10 @@
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -5782,7 +6346,7 @@
         <v>8541143511</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>17</v>
@@ -5794,10 +6358,10 @@
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -5805,10 +6369,10 @@
         <v>8541143511</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="3" t="s">
@@ -5820,15 +6384,16 @@
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="3" t="n">
         <v>4821874504</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>125</v>
+      <c r="F7" s="3" t="e">
+        <f aca="false">SUMIFS('david gustavo' $AZ:$AZ,'david gustavo' $A:$A,'fechamento 'david gustavo'!i65diário' B14)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>21</v>
@@ -5843,7 +6408,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -5851,13 +6416,13 @@
         <v>94168865568</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>14</v>
@@ -5868,7 +6433,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -5876,7 +6441,7 @@
         <v>1897350589</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>21</v>
@@ -5891,7 +6456,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -5899,7 +6464,7 @@
         <v>37334018591</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>21</v>
@@ -5914,7 +6479,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -5922,7 +6487,7 @@
         <v>71707778515</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>17</v>
@@ -5937,7 +6502,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -5958,7 +6523,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -5979,7 +6544,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -5987,7 +6552,7 @@
         <v>17734959504</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>28</v>
@@ -6004,7 +6569,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -6012,7 +6577,7 @@
         <v>5937324560</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>28</v>
@@ -6029,7 +6594,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -6037,7 +6602,7 @@
         <v>29494826515</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>21</v>
@@ -6052,7 +6617,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -6060,7 +6625,7 @@
         <v>29494826515</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>31</v>
@@ -6075,7 +6640,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -6083,13 +6648,13 @@
         <v>5171413533</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>24</v>
@@ -6100,7 +6665,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -6108,7 +6673,7 @@
         <v>5171413533</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>21</v>
@@ -6123,7 +6688,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -6131,7 +6696,7 @@
         <v>55969925500</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>21</v>
@@ -6146,7 +6711,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -6154,7 +6719,7 @@
         <v>78663202504</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>28</v>
@@ -6171,7 +6736,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -6179,7 +6744,7 @@
         <v>8251550530</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>12</v>
@@ -6196,7 +6761,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -6204,7 +6769,7 @@
         <v>13523856515</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>12</v>
@@ -6221,7 +6786,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -6229,7 +6794,7 @@
         <v>21893365549</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>17</v>
@@ -6244,7 +6809,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -6263,7 +6828,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -6271,7 +6836,7 @@
         <v>39651568534</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>12</v>
@@ -6288,7 +6853,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -6296,7 +6861,7 @@
         <v>39651568534</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>20</v>
@@ -6311,7 +6876,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -6319,13 +6884,13 @@
         <v>14307936515</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>14</v>
@@ -6336,7 +6901,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -6344,7 +6909,7 @@
         <v>14307936515</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>20</v>
@@ -6359,7 +6924,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -6367,7 +6932,7 @@
         <v>14307936515</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>17</v>
@@ -6382,7 +6947,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -6390,7 +6955,7 @@
         <v>14307936515</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>19</v>
@@ -6405,7 +6970,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -6413,7 +6978,7 @@
         <v>14307936515</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>19</v>
@@ -6428,7 +6993,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -6436,7 +7001,7 @@
         <v>14307936515</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>19</v>
@@ -6451,7 +7016,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -6459,10 +7024,10 @@
         <v>14307936515</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="3" t="s">
@@ -6474,7 +7039,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -6482,7 +7047,7 @@
         <v>18380107500</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>19</v>
@@ -6497,7 +7062,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -6505,13 +7070,13 @@
         <v>5579882505</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>14</v>
@@ -6522,7 +7087,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -6530,7 +7095,7 @@
         <v>5579882505</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>21</v>
@@ -6545,7 +7110,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -6553,13 +7118,729 @@
         <v>14307936515</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="3" t="n">
+        <v>12440639591</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="3" t="n">
+        <v>63363720572</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="3" t="n">
+        <v>63363720572</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="3" t="n">
+        <v>63363720572</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="3" t="n">
+        <v>67090389553</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="3" t="n">
+        <v>67090389553</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="3" t="n">
+        <v>67090389553</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="3" t="n">
+        <v>81223102572</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="3" t="n">
+        <v>81223102572</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="3" t="n">
+        <v>81223102572</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="3" t="n">
+        <v>81552700500</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="3" t="n">
+        <v>85294004534</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="3" t="n">
+        <v>85294004534</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="3" t="n">
+        <v>85294004534</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="3" t="n">
+        <v>8776509508</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="3" t="n">
+        <v>63367025534</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="6"/>
+      <c r="I54" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="3" t="n">
+        <v>24052841549</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="3" t="n">
+        <v>24052841549</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="6"/>
+      <c r="I56" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6"/>
+      <c r="B57" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="3" t="n">
+        <v>51378701534</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="3" t="n">
+        <v>51378701534</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="6"/>
+      <c r="B61" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="6"/>
+      <c r="B62" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6"/>
+      <c r="B63" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="6"/>
+      <c r="B64" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6"/>
+      <c r="B65" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="6"/>
+      <c r="B66" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="6"/>
+      <c r="B67" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="6"/>
+      <c r="B68" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6"/>
+      <c r="B69" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="6"/>
+      <c r="B70" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="6"/>
+      <c r="B71" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6"/>
+      <c r="B72" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6"/>
+      <c r="B73" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="6"/>
+      <c r="B74" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6580,13 +7861,13 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="13.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.01"/>
@@ -6624,10 +7905,10 @@
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -6645,10 +7926,10 @@
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -6666,10 +7947,10 @@
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -6687,10 +7968,10 @@
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -6706,10 +7987,10 @@
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -6729,10 +8010,10 @@
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -6752,10 +8033,10 @@
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -6776,7 +8057,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -6797,7 +8078,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -6818,7 +8099,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -6839,7 +8120,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -6860,7 +8141,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -6872,7 +8153,7 @@
         <v>28</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>14</v>
@@ -6883,7 +8164,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -6904,7 +8185,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -6916,7 +8197,7 @@
         <v>28</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>14</v>
@@ -6927,7 +8208,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -6950,7 +8231,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -6973,7 +8254,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -6994,7 +8275,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -7015,12 +8296,12 @@
         <v>22</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="3" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="3" t="s">
@@ -7038,7 +8319,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -7061,7 +8342,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -7084,7 +8365,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -7107,7 +8388,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -7128,7 +8409,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -7149,7 +8430,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -7170,7 +8451,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -7193,7 +8474,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -7214,7 +8495,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -7235,7 +8516,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -7256,7 +8537,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -7277,7 +8558,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -7298,7 +8579,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -7321,7 +8602,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -7342,7 +8623,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -7363,7 +8644,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -7384,7 +8665,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -7407,7 +8688,7 @@
         <v>27</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -7430,7 +8711,7 @@
         <v>27</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -7453,12 +8734,12 @@
         <v>27</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="3" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="3" t="s">
@@ -7474,7 +8755,7 @@
         <v>27</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -7495,7 +8776,7 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -7516,7 +8797,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -7535,7 +8816,7 @@
         <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -7558,7 +8839,7 @@
         <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -7581,7 +8862,7 @@
         <v>29</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -7602,7 +8883,7 @@
         <v>29</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -7623,7 +8904,7 @@
         <v>29</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -7646,7 +8927,7 @@
         <v>29</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -7659,6 +8940,543 @@
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="3" t="n">
+        <v>94268720510</v>
+      </c>
+      <c r="F50" s="6"/>
+      <c r="G50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="3" t="n">
+        <v>94268720510</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="3" t="n">
+        <v>6913224575</v>
+      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="3" t="n">
+        <v>6913224575</v>
+      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="3" t="n">
+        <v>39107485549</v>
+      </c>
+      <c r="F54" s="6"/>
+      <c r="G54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="3" t="n">
+        <v>1192926536</v>
+      </c>
+      <c r="F55" s="6"/>
+      <c r="G55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="3" t="n">
+        <v>78324408568</v>
+      </c>
+      <c r="F56" s="6"/>
+      <c r="G56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="6"/>
+      <c r="I56" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="3" t="n">
+        <v>78324408568</v>
+      </c>
+      <c r="F57" s="6"/>
+      <c r="G57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="3" t="n">
+        <v>2386819558</v>
+      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="3" t="n">
+        <v>2386819558</v>
+      </c>
+      <c r="F59" s="6"/>
+      <c r="G59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="6"/>
+      <c r="I59" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="3" t="n">
+        <v>9508171553</v>
+      </c>
+      <c r="F60" s="6"/>
+      <c r="G60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="3" t="n">
+        <v>9508171553</v>
+      </c>
+      <c r="F61" s="6"/>
+      <c r="G61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="6"/>
+      <c r="I61" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="3" t="n">
+        <v>9508171553</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H62" s="6"/>
+      <c r="I62" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="3" t="n">
+        <v>29017475587</v>
+      </c>
+      <c r="F63" s="6"/>
+      <c r="G63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="6"/>
+      <c r="I63" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="3" t="n">
+        <v>29017475587</v>
+      </c>
+      <c r="F64" s="6"/>
+      <c r="G64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="3" t="n">
+        <v>29017475587</v>
+      </c>
+      <c r="F65" s="6"/>
+      <c r="G65" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H65" s="6"/>
+      <c r="I65" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="3" t="n">
+        <v>7794541549</v>
+      </c>
+      <c r="F66" s="6"/>
+      <c r="G66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="6"/>
+      <c r="I66" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="3" t="n">
+        <v>16295269591</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="6"/>
+      <c r="I67" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="3" t="n">
+        <v>16295269591</v>
+      </c>
+      <c r="F68" s="6"/>
+      <c r="G68" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" s="6"/>
+      <c r="I68" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="3" t="n">
+        <v>16295269591</v>
+      </c>
+      <c r="F69" s="6"/>
+      <c r="G69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="6"/>
+      <c r="I69" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="3" t="n">
+        <v>64634795515</v>
+      </c>
+      <c r="F70" s="6"/>
+      <c r="G70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="3" t="n">
+        <v>64634795515</v>
+      </c>
+      <c r="F71" s="6"/>
+      <c r="G71" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="6"/>
+      <c r="I71" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="3" t="n">
+        <v>82082715515</v>
+      </c>
+      <c r="F72" s="6"/>
+      <c r="G72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="3" t="n">
+        <v>82082715515</v>
+      </c>
+      <c r="F73" s="6"/>
+      <c r="G73" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" s="6"/>
+      <c r="I73" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="3" t="n">
+        <v>86345546518</v>
+      </c>
+      <c r="F74" s="6"/>
+      <c r="G74" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="6"/>
+      <c r="I74" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7750,7 +9568,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="9" t="n">
@@ -7760,7 +9578,7 @@
         <v>16456351553</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>12</v>
@@ -7777,7 +9595,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="3" t="n">
@@ -7787,7 +9605,7 @@
         <v>16456351553</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>21</v>
@@ -7802,7 +9620,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="3" t="n">
@@ -7812,7 +9630,7 @@
         <v>18339379534</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>21</v>
@@ -7827,7 +9645,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="3" t="n">
@@ -7837,7 +9655,7 @@
         <v>35124385553</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>17</v>
@@ -7852,7 +9670,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="3" t="n">
@@ -7862,10 +9680,10 @@
         <v>35124385553</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="3" t="s">
@@ -7877,7 +9695,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="3" t="n">
@@ -7887,7 +9705,7 @@
         <v>35124385553</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>28</v>
@@ -7904,7 +9722,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="9" t="n">
@@ -7914,13 +9732,13 @@
         <v>48772666587</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>14</v>
@@ -7931,7 +9749,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="3" t="n">
@@ -7941,7 +9759,7 @@
         <v>48772666587</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>17</v>
@@ -7956,7 +9774,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="3" t="n">
@@ -7966,7 +9784,7 @@
         <v>48772666587</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>19</v>
@@ -7981,7 +9799,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="3" t="n">
@@ -7991,7 +9809,7 @@
         <v>48772666587</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>19</v>
@@ -8006,7 +9824,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="3" t="n">
@@ -8016,7 +9834,7 @@
         <v>19604688553</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>12</v>
@@ -8033,7 +9851,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="3" t="n">
@@ -8043,7 +9861,7 @@
         <v>64563774553</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>19</v>
@@ -8058,7 +9876,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="9" t="n">
@@ -8068,7 +9886,7 @@
         <v>89480902591</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>31</v>
@@ -8083,7 +9901,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="3" t="n">
@@ -8093,7 +9911,7 @@
         <v>5826730544</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>21</v>
@@ -8108,7 +9926,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="3" t="n">
@@ -8118,7 +9936,7 @@
         <v>46524649591</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>20</v>
@@ -8133,7 +9951,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="3" t="n">
@@ -8143,7 +9961,7 @@
         <v>3037385537</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>12</v>
@@ -8160,7 +9978,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="3" t="n">
@@ -8170,7 +9988,7 @@
         <v>54377730568</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>19</v>
@@ -8185,7 +10003,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="3" t="n">
@@ -8195,7 +10013,7 @@
         <v>64435148587</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>31</v>
@@ -8210,7 +10028,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="9" t="n">
@@ -8220,10 +10038,10 @@
         <v>4567412591</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>32</v>
@@ -8237,7 +10055,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="3" t="n">
@@ -8247,7 +10065,7 @@
         <v>4099023141</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>28</v>
@@ -8264,7 +10082,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="3" t="n">
@@ -8274,13 +10092,13 @@
         <v>54611121534</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>14</v>
@@ -8291,7 +10109,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="3" t="n">
@@ -8301,7 +10119,7 @@
         <v>54611121534</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>12</v>
@@ -8318,7 +10136,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="3" t="n">
@@ -8328,7 +10146,7 @@
         <v>54611121534</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>20</v>
@@ -8343,7 +10161,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="3" t="n">
@@ -8353,7 +10171,7 @@
         <v>90375904549</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>12</v>
@@ -8370,7 +10188,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="3" t="n">
@@ -8380,7 +10198,7 @@
         <v>82594937568</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>21</v>
@@ -8395,7 +10213,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="3" t="n">
@@ -8405,7 +10223,7 @@
         <v>27230767504</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>31</v>
@@ -8420,7 +10238,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="3" t="n">
@@ -8430,7 +10248,7 @@
         <v>9546529591</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>17</v>
@@ -8445,7 +10263,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="3" t="n">
@@ -8455,10 +10273,10 @@
         <v>9546529591</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="3" t="s">
@@ -8470,7 +10288,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="3" t="n">
@@ -8480,13 +10298,13 @@
         <v>173832504</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>14</v>
@@ -8497,7 +10315,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="3" t="n">
@@ -8507,7 +10325,7 @@
         <v>84590378515</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>28</v>
@@ -8520,136 +10338,314 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="A32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="3" t="n">
+        <v>71999558082</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>1224197585</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="A33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="3" t="n">
+        <v>71999558082</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>1224197585</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="A34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="3" t="n">
+        <v>71997246339</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>9486393508</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="A35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="3" t="n">
+        <v>71997246339</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>9486393508</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="A36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="3" t="n">
+        <v>71999855375</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>6290877500</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="A37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="A38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="3" t="n">
+        <v>71999992677</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>24254185553</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+      <c r="A39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="3" t="n">
+        <v>71999992677</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>24254185553</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="A40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="3" t="n">
+        <v>71999992677</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>24254185553</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="A41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="3" t="n">
+        <v>71996986061</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>93731400510</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="A42" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="3" t="n">
+        <v>71996204086</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>3896351540</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="A43" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="3" t="n">
+        <v>71996687187</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>95946225553</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="4"/>

--- a/excel_file/vendedores_controle_junho.xlsx
+++ b/excel_file/vendedores_controle_junho.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="ANA"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2831" uniqueCount="285">
   <si>
     <t>DATA</t>
   </si>
@@ -278,6 +278,18 @@
     <t>REGINALDO DOS SANTOS RODRIGUES</t>
   </si>
   <si>
+    <t>MARCONI JOSE DE MEDEIROS DUTRA</t>
+  </si>
+  <si>
+    <t>DANIELA SANTOS PARANHOS DA SILVA</t>
+  </si>
+  <si>
+    <t>13/06/25</t>
+  </si>
+  <si>
+    <t>GEISA CABRAL MONTEIRO SILVA</t>
+  </si>
+  <si>
     <t>01/06/25</t>
   </si>
   <si>
@@ -464,6 +476,12 @@
     <t>Jose</t>
   </si>
   <si>
+    <t>Rubia</t>
+  </si>
+  <si>
+    <t>Indnara</t>
+  </si>
+  <si>
     <t>CAROLINE ARGOLO</t>
   </si>
   <si>
@@ -608,6 +626,12 @@
     <t>fixa</t>
   </si>
   <si>
+    <t>edson</t>
+  </si>
+  <si>
+    <t>valdeci</t>
+  </si>
+  <si>
     <t>AMANDA LEAL</t>
   </si>
   <si>
@@ -683,6 +707,18 @@
     <t>ELOISIO</t>
   </si>
   <si>
+    <t>DANIELE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIVO TOTAL ULTRA </t>
+  </si>
+  <si>
+    <t>Tatiana</t>
+  </si>
+  <si>
+    <t>OLUNDI</t>
+  </si>
+  <si>
     <t>ANDERSON COSTA</t>
   </si>
   <si>
@@ -825,6 +861,12 @@
   </si>
   <si>
     <t xml:space="preserve">EDER FABIO </t>
+  </si>
+  <si>
+    <t>JOSE ALOISIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARINALVA </t>
   </si>
   <si>
     <t>ANA SANTOS</t>
@@ -1211,9 +1253,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:N94"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1221,7 +1263,7 @@
     <col min="2" max="2" style="5" width="13.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="13.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="13.005" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="5" width="13.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="5" width="13.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="5" width="13.005" customWidth="1" bestFit="1"/>
@@ -1272,7 +1314,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1280,7 +1322,7 @@
         <v>6360750520</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -1302,7 +1344,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1312,10 +1354,10 @@
         <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1328,7 +1370,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1354,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1380,7 +1422,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1406,7 +1448,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1432,7 +1474,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1458,7 +1500,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1470,7 +1512,7 @@
         <v>12</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>14</v>
@@ -1486,7 +1528,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1512,7 +1554,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1538,7 +1580,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1564,7 +1606,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1590,7 +1632,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1616,7 +1658,7 @@
         <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1642,7 +1684,7 @@
         <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1666,7 +1708,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1690,7 +1732,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1702,7 +1744,7 @@
         <v>12</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>14</v>
@@ -1718,7 +1760,7 @@
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1746,7 +1788,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1772,7 +1814,7 @@
         <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1784,7 +1826,7 @@
         <v>12</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>14</v>
@@ -1800,7 +1842,7 @@
         <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1826,7 +1868,7 @@
         <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1854,7 +1896,7 @@
         <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1882,7 +1924,7 @@
         <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1908,7 +1950,7 @@
         <v>45</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1934,7 +1976,7 @@
         <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1960,7 +2002,7 @@
         <v>45</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1986,7 +2028,7 @@
         <v>45</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2012,7 +2054,7 @@
         <v>45</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2038,7 +2080,7 @@
         <v>45</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2064,7 +2106,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2090,7 +2132,7 @@
         <v>45</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2116,7 +2158,7 @@
         <v>45</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2140,7 +2182,7 @@
         <v>51</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2168,7 +2210,7 @@
         <v>51</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2194,7 +2236,7 @@
         <v>51</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2222,7 +2264,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2248,7 +2290,7 @@
         <v>51</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2276,7 +2318,7 @@
         <v>51</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2288,10 +2330,10 @@
         <v>12</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -2304,7 +2346,7 @@
         <v>59</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2328,7 +2370,7 @@
         <v>59</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2354,7 +2396,7 @@
         <v>59</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2366,7 +2408,7 @@
         <v>12</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>14</v>
@@ -2382,7 +2424,7 @@
         <v>59</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2408,7 +2450,7 @@
         <v>59</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2436,7 +2478,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2448,7 +2490,7 @@
         <v>12</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>14</v>
@@ -2464,7 +2506,7 @@
         <v>64</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2488,7 +2530,7 @@
         <v>64</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2514,7 +2556,7 @@
         <v>64</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2540,7 +2582,7 @@
         <v>64</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2566,7 +2608,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2592,7 +2634,7 @@
         <v>64</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2618,7 +2660,7 @@
         <v>64</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2644,7 +2686,7 @@
         <v>64</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2670,7 +2712,7 @@
         <v>64</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2696,7 +2738,7 @@
         <v>64</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2722,7 +2764,7 @@
         <v>64</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2734,7 +2776,7 @@
         <v>12</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>14</v>
@@ -2750,7 +2792,7 @@
         <v>68</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2762,7 +2804,7 @@
         <v>21</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>14</v>
@@ -2778,7 +2820,7 @@
         <v>68</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2790,7 +2832,7 @@
         <v>12</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>14</v>
@@ -2806,7 +2848,7 @@
         <v>68</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2832,7 +2874,7 @@
         <v>68</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2858,7 +2900,7 @@
         <v>68</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2884,7 +2926,7 @@
         <v>68</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2910,7 +2952,7 @@
         <v>76</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2936,7 +2978,7 @@
         <v>76</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2964,7 +3006,7 @@
         <v>76</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2992,7 +3034,7 @@
         <v>76</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -3016,7 +3058,7 @@
         <v>76</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -3040,7 +3082,7 @@
         <v>76</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -3066,7 +3108,7 @@
         <v>76</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -3092,7 +3134,7 @@
         <v>76</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -3118,7 +3160,7 @@
         <v>76</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -3144,7 +3186,7 @@
         <v>76</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3166,7 +3208,7 @@
         <v>76</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3192,7 +3234,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -3218,7 +3260,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3244,7 +3286,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3270,7 +3312,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3296,7 +3338,7 @@
         <v>82</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3322,7 +3364,7 @@
         <v>82</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3348,7 +3390,7 @@
         <v>82</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3374,7 +3416,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3402,7 +3444,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3430,7 +3472,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3456,7 +3498,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3482,7 +3524,7 @@
         <v>82</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3508,7 +3550,7 @@
         <v>82</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3520,7 +3562,7 @@
         <v>12</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>14</v>
@@ -3536,7 +3578,7 @@
         <v>82</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3562,7 +3604,7 @@
         <v>82</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3588,7 +3630,7 @@
         <v>82</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3614,7 +3656,7 @@
         <v>82</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3640,7 +3682,7 @@
         <v>82</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3666,7 +3708,7 @@
         <v>82</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3694,7 +3736,7 @@
         <v>82</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3714,6 +3756,132 @@
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18">
+      <c r="A95" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="3">
+        <v>9495410525</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18">
+      <c r="A96" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="3">
+        <v>9495410525</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18">
+      <c r="A97" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18">
+      <c r="A98" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="3">
+        <v>9495410525</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18">
+      <c r="A99" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3725,7 +3893,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:W77"/>
+  <dimension ref="A1:W81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3735,7 +3903,7 @@
     <col min="2" max="2" style="5" width="13.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="13.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="13.005" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="5" width="13.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="5" width="13.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="5" width="13.005" customWidth="1" bestFit="1"/>
@@ -3804,7 +3972,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -3812,7 +3980,7 @@
         <v>4161978502</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>26</v>
@@ -3841,17 +4009,17 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="3">
         <v>71996999215</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>34</v>
@@ -3880,7 +4048,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="3">
@@ -3890,7 +4058,7 @@
         <v>2672115540</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>31</v>
@@ -3919,7 +4087,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="3">
@@ -3929,7 +4097,7 @@
         <v>78442036504</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>31</v>
@@ -3958,7 +4126,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="3">
@@ -3968,7 +4136,7 @@
         <v>19421990587</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>34</v>
@@ -3997,7 +4165,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="3">
@@ -4007,7 +4175,7 @@
         <v>19421990587</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>15</v>
@@ -4034,7 +4202,7 @@
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
@@ -4065,7 +4233,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="3">
@@ -4075,7 +4243,7 @@
         <v>45374635549</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>31</v>
@@ -4104,7 +4272,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="3">
@@ -4114,13 +4282,13 @@
         <v>10640748554</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>14</v>
@@ -4145,7 +4313,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3">
@@ -4155,13 +4323,13 @@
         <v>85929541507</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>14</v>
@@ -4186,7 +4354,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="3">
@@ -4196,7 +4364,7 @@
         <v>2040006532</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>12</v>
@@ -4227,7 +4395,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
@@ -4256,7 +4424,7 @@
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
@@ -4287,7 +4455,7 @@
         <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="3">
@@ -4297,7 +4465,7 @@
         <v>26888351572</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>19</v>
@@ -4326,7 +4494,7 @@
         <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="3">
@@ -4336,7 +4504,7 @@
         <v>26888351572</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>26</v>
@@ -4365,7 +4533,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="3">
@@ -4375,7 +4543,7 @@
         <v>26888351572</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>20</v>
@@ -4404,7 +4572,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="3">
@@ -4414,7 +4582,7 @@
         <v>26888351572</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>20</v>
@@ -4443,7 +4611,7 @@
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="3">
@@ -4453,7 +4621,7 @@
         <v>19528426549</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>19</v>
@@ -4482,7 +4650,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="3">
@@ -4492,7 +4660,7 @@
         <v>19528426549</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>26</v>
@@ -4521,7 +4689,7 @@
         <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="3">
@@ -4531,7 +4699,7 @@
         <v>71987453256</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>31</v>
@@ -4560,7 +4728,7 @@
         <v>36</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="3">
@@ -4570,7 +4738,7 @@
         <v>79127517500</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>19</v>
@@ -4599,7 +4767,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="3">
@@ -4609,7 +4777,7 @@
         <v>79127517500</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>26</v>
@@ -4638,7 +4806,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="3">
@@ -4648,7 +4816,7 @@
         <v>79127517500</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>26</v>
@@ -4677,7 +4845,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="3">
@@ -4687,7 +4855,7 @@
         <v>79127517500</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>26</v>
@@ -4716,7 +4884,7 @@
         <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="3">
@@ -4726,7 +4894,7 @@
         <v>91155827520</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>34</v>
@@ -4753,7 +4921,7 @@
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
@@ -4782,7 +4950,7 @@
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
@@ -4813,7 +4981,7 @@
         <v>45</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="3">
@@ -4823,13 +4991,13 @@
         <v>3570729524</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>23</v>
@@ -4854,7 +5022,7 @@
         <v>45</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="3">
@@ -4864,13 +5032,13 @@
         <v>2597528510</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>14</v>
@@ -4895,7 +5063,7 @@
         <v>45</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="3">
@@ -4905,7 +5073,7 @@
         <v>80449255549</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>31</v>
@@ -4934,7 +5102,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="3">
@@ -4944,13 +5112,13 @@
         <v>85995129511</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>14</v>
@@ -4975,7 +5143,7 @@
         <v>45</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="3">
@@ -4985,7 +5153,7 @@
         <v>4458122576</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>20</v>
@@ -5014,7 +5182,7 @@
         <v>45</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="2"/>
@@ -5022,7 +5190,7 @@
         <v>22007253534</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>20</v>
@@ -5049,7 +5217,7 @@
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="2"/>
@@ -5080,7 +5248,7 @@
         <v>51</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="3">
@@ -5090,7 +5258,7 @@
         <v>40621049549</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>34</v>
@@ -5119,7 +5287,7 @@
         <v>51</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="3">
@@ -5129,13 +5297,13 @@
         <v>2659826501</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>14</v>
@@ -5160,7 +5328,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="3">
@@ -5170,7 +5338,7 @@
         <v>2659826501</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>19</v>
@@ -5199,7 +5367,7 @@
         <v>51</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="3">
@@ -5209,7 +5377,7 @@
         <v>2659826501</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>26</v>
@@ -5238,7 +5406,7 @@
         <v>51</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="3">
@@ -5248,13 +5416,13 @@
         <v>3496547510</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>14</v>
@@ -5279,7 +5447,7 @@
         <v>51</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="3">
@@ -5289,7 +5457,7 @@
         <v>3496547510</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>19</v>
@@ -5318,7 +5486,7 @@
         <v>51</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="3">
@@ -5328,7 +5496,7 @@
         <v>3496547510</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>26</v>
@@ -5357,7 +5525,7 @@
         <v>51</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="3">
@@ -5367,7 +5535,7 @@
         <v>3496547510</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>26</v>
@@ -5394,7 +5562,7 @@
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
@@ -5425,7 +5593,7 @@
         <v>59</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="3">
@@ -5435,7 +5603,7 @@
         <v>2801300071</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>19</v>
@@ -5464,7 +5632,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="3">
@@ -5474,7 +5642,7 @@
         <v>2801300071</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>26</v>
@@ -5503,7 +5671,7 @@
         <v>59</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="3">
@@ -5513,7 +5681,7 @@
         <v>2385108593</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>20</v>
@@ -5542,7 +5710,7 @@
         <v>59</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="3">
@@ -5552,7 +5720,7 @@
         <v>37838865387</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>19</v>
@@ -5581,7 +5749,7 @@
         <v>59</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="3">
@@ -5591,7 +5759,7 @@
         <v>37838865387</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>26</v>
@@ -5620,7 +5788,7 @@
         <v>59</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="3">
@@ -5630,7 +5798,7 @@
         <v>37838865387</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>26</v>
@@ -5659,7 +5827,7 @@
         <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="3">
@@ -5669,7 +5837,7 @@
         <v>37838865387</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>20</v>
@@ -5696,7 +5864,7 @@
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="2"/>
@@ -5727,7 +5895,7 @@
         <v>64</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="3">
@@ -5737,7 +5905,7 @@
         <v>81123566534</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>34</v>
@@ -5766,7 +5934,7 @@
         <v>64</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="3">
@@ -5776,7 +5944,7 @@
         <v>81123566534</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>12</v>
@@ -5807,7 +5975,7 @@
         <v>64</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="3">
@@ -5817,7 +5985,7 @@
         <v>81123566534</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>19</v>
@@ -5846,7 +6014,7 @@
         <v>64</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="3">
@@ -5856,7 +6024,7 @@
         <v>81123566534</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>26</v>
@@ -5885,7 +6053,7 @@
         <v>64</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3">
@@ -5895,13 +6063,13 @@
         <v>13497359572</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>14</v>
@@ -5926,7 +6094,7 @@
         <v>64</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="3">
@@ -5934,7 +6102,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="1" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>31</v>
@@ -5963,7 +6131,7 @@
         <v>64</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="3">
@@ -5973,13 +6141,13 @@
         <v>33052964534</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>23</v>
@@ -6004,7 +6172,7 @@
         <v>64</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="3">
@@ -6014,7 +6182,7 @@
         <v>33052964534</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>26</v>
@@ -6041,7 +6209,7 @@
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="2"/>
@@ -6072,7 +6240,7 @@
         <v>68</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="3">
@@ -6082,13 +6250,13 @@
         <v>85489050500</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>14</v>
@@ -6113,7 +6281,7 @@
         <v>68</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="3">
@@ -6123,7 +6291,7 @@
         <v>22361960591</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>34</v>
@@ -6152,7 +6320,7 @@
         <v>68</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="3">
@@ -6162,13 +6330,13 @@
         <v>79194109591</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>14</v>
@@ -6193,7 +6361,7 @@
         <v>68</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="3">
@@ -6203,7 +6371,7 @@
         <v>79194109591</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>19</v>
@@ -6232,7 +6400,7 @@
         <v>68</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="3">
@@ -6242,7 +6410,7 @@
         <v>79194109591</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>26</v>
@@ -6271,7 +6439,7 @@
         <v>68</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="3">
@@ -6281,7 +6449,7 @@
         <v>1785825577</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>21</v>
@@ -6312,7 +6480,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="3">
@@ -6322,7 +6490,7 @@
         <v>71997092018</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>12</v>
@@ -6353,17 +6521,17 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="3">
         <v>71985555621</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>20</v>
@@ -6392,7 +6560,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="3">
@@ -6402,7 +6570,7 @@
         <v>23084910510</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>19</v>
@@ -6429,7 +6597,7 @@
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="2"/>
@@ -6460,7 +6628,7 @@
         <v>76</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="3">
@@ -6470,13 +6638,13 @@
         <v>77935110506</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>14</v>
@@ -6501,7 +6669,7 @@
         <v>76</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="3">
@@ -6511,7 +6679,7 @@
         <v>80309658500</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>34</v>
@@ -6540,7 +6708,7 @@
         <v>76</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="3">
@@ -6550,7 +6718,7 @@
         <v>80309658500</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>21</v>
@@ -6581,7 +6749,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="3">
@@ -6591,13 +6759,13 @@
         <v>18542328515</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>14</v>
@@ -6622,7 +6790,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="3">
@@ -6632,13 +6800,13 @@
         <v>6158447587</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>14</v>
@@ -6663,7 +6831,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="2"/>
@@ -6671,7 +6839,7 @@
         <v>91653932520</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>20</v>
@@ -6695,6 +6863,144 @@
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18">
+      <c r="A79" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="3">
+        <v>71999076347</v>
+      </c>
+      <c r="E79" s="3">
+        <v>33257361572</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18">
+      <c r="A80" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="3">
+        <v>71996975760</v>
+      </c>
+      <c r="E80" s="3">
+        <v>80946771553</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18">
+      <c r="A81" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6705,7 +7011,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6714,8 +7020,8 @@
     <col min="1" max="1" style="5" width="13.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="5" width="13.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="5" width="13.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="5" width="13.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="5" width="13.005" customWidth="1" bestFit="1"/>
@@ -6753,10 +7059,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="3">
@@ -6766,7 +7072,7 @@
         <v>24221066504</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -6780,10 +7086,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="3">
@@ -6793,7 +7099,7 @@
         <v>58222952587</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>19</v>
@@ -6808,7 +7114,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="3">
@@ -6818,13 +7124,13 @@
         <v>2615247557</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>14</v>
@@ -6835,7 +7141,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="3">
@@ -6845,7 +7151,7 @@
         <v>2615247557</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>15</v>
@@ -6860,7 +7166,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="3">
@@ -6870,7 +7176,7 @@
         <v>71981877126</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -6887,7 +7193,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="3">
@@ -6897,7 +7203,7 @@
         <v>1745971505</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -6914,7 +7220,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="3">
@@ -6924,7 +7230,7 @@
         <v>64563774553</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>19</v>
@@ -6939,7 +7245,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="3">
@@ -6949,7 +7255,7 @@
         <v>12188899504</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
@@ -6966,7 +7272,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="3">
@@ -6976,13 +7282,13 @@
         <v>6869354545</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>14</v>
@@ -6993,7 +7299,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3">
@@ -7003,13 +7309,13 @@
         <v>7109880524</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>14</v>
@@ -7020,7 +7326,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="3">
@@ -7030,13 +7336,13 @@
         <v>58028536549</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>14</v>
@@ -7047,7 +7353,7 @@
         <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="3">
@@ -7057,7 +7363,7 @@
         <v>12126105555</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>12</v>
@@ -7074,7 +7380,7 @@
         <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="3">
@@ -7084,7 +7390,7 @@
         <v>12126105555</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>31</v>
@@ -7099,7 +7405,7 @@
         <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="3">
@@ -7109,7 +7415,7 @@
         <v>2888038501</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>12</v>
@@ -7126,7 +7432,7 @@
         <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="3">
@@ -7136,7 +7442,7 @@
         <v>22007253534</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>19</v>
@@ -7151,7 +7457,7 @@
         <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="3">
@@ -7161,7 +7467,7 @@
         <v>22007253534</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>26</v>
@@ -7176,7 +7482,7 @@
         <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="3">
@@ -7186,7 +7492,7 @@
         <v>22007253534</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>26</v>
@@ -7201,7 +7507,7 @@
         <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
@@ -7209,7 +7515,7 @@
         <v>11276622520</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>19</v>
@@ -7224,7 +7530,7 @@
         <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
@@ -7232,7 +7538,7 @@
         <v>11276622520</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>26</v>
@@ -7247,7 +7553,7 @@
         <v>59</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
@@ -7266,7 +7572,7 @@
         <v>59</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
@@ -7282,22 +7588,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="1" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>14</v>
@@ -7305,10 +7611,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
       <c r="A24" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="3">
@@ -7318,13 +7624,13 @@
         <v>8888617531</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>14</v>
@@ -7335,7 +7641,7 @@
         <v>64</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
@@ -7354,7 +7660,7 @@
         <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="3">
@@ -7373,7 +7679,7 @@
         <v>64</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
@@ -7381,7 +7687,7 @@
         <v>37969587534</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>31</v>
@@ -7396,7 +7702,7 @@
         <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="3">
@@ -7406,7 +7712,7 @@
         <v>417407696</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>19</v>
@@ -7421,7 +7727,7 @@
         <v>64</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="3">
@@ -7429,7 +7735,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>12</v>
@@ -7446,7 +7752,7 @@
         <v>64</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="3">
@@ -7456,7 +7762,7 @@
         <v>8033854553</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>19</v>
@@ -7471,7 +7777,7 @@
         <v>68</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="3">
@@ -7481,13 +7787,13 @@
         <v>5807913515</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>23</v>
@@ -7498,7 +7804,7 @@
         <v>68</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="3">
@@ -7508,7 +7814,7 @@
         <v>5818976505</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>19</v>
@@ -7523,7 +7829,7 @@
         <v>68</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="3">
@@ -7533,7 +7839,7 @@
         <v>5818976505</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>26</v>
@@ -7548,7 +7854,7 @@
         <v>68</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="3">
@@ -7558,7 +7864,7 @@
         <v>5818976505</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>20</v>
@@ -7573,7 +7879,7 @@
         <v>68</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="3">
@@ -7583,13 +7889,13 @@
         <v>78080479534</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>14</v>
@@ -7600,7 +7906,7 @@
         <v>68</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="3">
@@ -7610,13 +7916,13 @@
         <v>78080479534</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>14</v>
@@ -7627,7 +7933,7 @@
         <v>68</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="3">
@@ -7637,13 +7943,13 @@
         <v>78080479534</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>14</v>
@@ -7654,7 +7960,7 @@
         <v>68</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="3">
@@ -7664,30 +7970,271 @@
         <v>78080479534</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="B39" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="D39" s="3">
+        <v>71999739798</v>
+      </c>
+      <c r="E39" s="3">
+        <v>4011574589</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
+      <c r="A40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="3">
+        <v>71999739798</v>
+      </c>
+      <c r="E40" s="3">
+        <v>4011574589</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
+      <c r="A41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="3">
+        <v>71999739798</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4011574589</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
+      <c r="A42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="3">
+        <v>71999739798</v>
+      </c>
+      <c r="E42" s="3">
+        <v>4011574589</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
+      <c r="A43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="3">
+        <v>71999643222</v>
+      </c>
+      <c r="E43" s="3">
+        <v>26144859500</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
+      <c r="A44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="3">
+        <v>71999643222</v>
+      </c>
+      <c r="E44" s="3">
+        <v>26144859500</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
+      <c r="A45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="3">
+        <v>71999643222</v>
+      </c>
+      <c r="E45" s="3">
+        <v>26144859500</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
+      <c r="A46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="3">
+        <v>71999643222</v>
+      </c>
+      <c r="E46" s="3">
+        <v>26144859500</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
+      <c r="A47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="3">
+        <v>71999753229</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1619085518</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
+      <c r="A48" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="3">
+        <v>71999753229</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1619085518</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7705,9 +8252,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7753,15 +8300,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
@@ -7774,15 +8321,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
@@ -7795,15 +8342,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
@@ -7816,15 +8363,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
@@ -7837,19 +8384,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
@@ -7858,15 +8405,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
@@ -7879,10 +8426,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
@@ -7903,7 +8450,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="3">
@@ -7913,7 +8460,7 @@
         <v>86381434511</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
@@ -7930,7 +8477,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="3">
@@ -7938,13 +8485,13 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>14</v>
@@ -7955,7 +8502,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3">
@@ -7965,7 +8512,7 @@
         <v>49982427504</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>15</v>
@@ -7980,7 +8527,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="3">
@@ -7990,7 +8537,7 @@
         <v>40493962549</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>12</v>
@@ -8007,7 +8554,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="3">
@@ -8017,7 +8564,7 @@
         <v>2642837599</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>15</v>
@@ -8032,7 +8579,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
@@ -8053,7 +8600,7 @@
         <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
@@ -8061,7 +8608,7 @@
         <v>9887652504</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>20</v>
@@ -8076,7 +8623,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="3">
@@ -8086,13 +8633,13 @@
         <v>50695878549</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>14</v>
@@ -8103,7 +8650,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
@@ -8111,7 +8658,7 @@
         <v>50695878549</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>31</v>
@@ -8126,7 +8673,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
@@ -8134,13 +8681,13 @@
         <v>70579490572</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>14</v>
@@ -8151,22 +8698,22 @@
         <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
@@ -8174,7 +8721,7 @@
         <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
@@ -8182,7 +8729,7 @@
         <v>29236070582</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>15</v>
@@ -8197,7 +8744,7 @@
         <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
@@ -8205,13 +8752,13 @@
         <v>53879430500</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>14</v>
@@ -8222,7 +8769,7 @@
         <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
@@ -8230,10 +8777,10 @@
         <v>88408698591</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
@@ -8245,7 +8792,7 @@
         <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
@@ -8253,7 +8800,7 @@
         <v>79173543500</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>19</v>
@@ -8268,7 +8815,7 @@
         <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
@@ -8276,7 +8823,7 @@
         <v>79173543500</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>26</v>
@@ -8291,7 +8838,7 @@
         <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
@@ -8299,7 +8846,7 @@
         <v>79173543500</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>26</v>
@@ -8314,7 +8861,7 @@
         <v>45</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
@@ -8331,7 +8878,7 @@
         <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
@@ -8339,7 +8886,7 @@
         <v>6107274510</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>34</v>
@@ -8354,7 +8901,7 @@
         <v>45</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
@@ -8375,7 +8922,7 @@
         <v>45</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
@@ -8384,10 +8931,10 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>23</v>
@@ -8398,7 +8945,7 @@
         <v>51</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
@@ -8406,7 +8953,7 @@
         <v>36257583420</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>20</v>
@@ -8421,7 +8968,7 @@
         <v>51</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="2"/>
@@ -8429,7 +8976,7 @@
         <v>63027976591</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>34</v>
@@ -8442,7 +8989,7 @@
         <v>51</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="2"/>
@@ -8450,13 +8997,13 @@
         <v>63027976591</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>14</v>
@@ -8467,7 +9014,7 @@
         <v>51</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="2"/>
@@ -8475,13 +9022,13 @@
         <v>63027976591</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>23</v>
@@ -8492,7 +9039,7 @@
         <v>51</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="2"/>
@@ -8500,7 +9047,7 @@
         <v>6434610513</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>21</v>
@@ -8517,7 +9064,7 @@
         <v>59</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="2"/>
@@ -8525,7 +9072,7 @@
         <v>11205768572</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>40</v>
@@ -8542,7 +9089,7 @@
         <v>59</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="2"/>
@@ -8550,7 +9097,7 @@
         <v>11205768572</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>15</v>
@@ -8565,7 +9112,7 @@
         <v>59</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="2"/>
@@ -8573,7 +9120,7 @@
         <v>8721618542</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>34</v>
@@ -8588,7 +9135,7 @@
         <v>59</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="2"/>
@@ -8596,7 +9143,7 @@
         <v>8721618542</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>21</v>
@@ -8613,15 +9160,15 @@
         <v>59</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>34</v>
@@ -8636,7 +9183,7 @@
         <v>59</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -8644,7 +9191,7 @@
         <v>91386845515</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>19</v>
@@ -8659,7 +9206,7 @@
         <v>59</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -8667,7 +9214,7 @@
         <v>91386845515</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>26</v>
@@ -8682,7 +9229,7 @@
         <v>59</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
@@ -8690,7 +9237,7 @@
         <v>91386845515</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>26</v>
@@ -8705,7 +9252,7 @@
         <v>59</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
@@ -8713,7 +9260,7 @@
         <v>91386845515</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>26</v>
@@ -8728,7 +9275,7 @@
         <v>59</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
@@ -8736,7 +9283,7 @@
         <v>91386845515</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>26</v>
@@ -8751,7 +9298,7 @@
         <v>59</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="2"/>
@@ -8759,7 +9306,7 @@
         <v>2385108593</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>19</v>
@@ -8774,7 +9321,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="2"/>
@@ -8782,7 +9329,7 @@
         <v>2385108593</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>26</v>
@@ -8797,7 +9344,7 @@
         <v>59</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="2"/>
@@ -8805,7 +9352,7 @@
         <v>2385108593</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>26</v>
@@ -8820,7 +9367,7 @@
         <v>59</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="2"/>
@@ -8828,7 +9375,7 @@
         <v>2385108593</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>26</v>
@@ -8843,7 +9390,7 @@
         <v>59</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
@@ -8851,7 +9398,7 @@
         <v>2385108593</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>34</v>
@@ -8863,10 +9410,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
       <c r="A50" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="2"/>
@@ -8874,7 +9421,7 @@
         <v>56924488587</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>19</v>
@@ -8886,10 +9433,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
       <c r="A51" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="2"/>
@@ -8897,7 +9444,7 @@
         <v>1163333590</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>19</v>
@@ -8909,10 +9456,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
       <c r="A52" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="2"/>
@@ -8930,10 +9477,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
       <c r="A53" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="2"/>
@@ -8941,13 +9488,13 @@
         <v>72616369591</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>14</v>
@@ -8955,10 +9502,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
       <c r="A54" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="2"/>
@@ -8966,7 +9513,7 @@
         <v>72616369591</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>15</v>
@@ -8978,10 +9525,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
       <c r="A55" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="2"/>
@@ -8989,7 +9536,7 @@
         <v>27254208572</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>19</v>
@@ -9001,10 +9548,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
       <c r="A56" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="2"/>
@@ -9012,7 +9559,7 @@
         <v>27254208572</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>26</v>
@@ -9027,7 +9574,7 @@
         <v>64</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="2"/>
@@ -9035,7 +9582,7 @@
         <v>80735487553</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>15</v>
@@ -9050,7 +9597,7 @@
         <v>64</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="2"/>
@@ -9058,7 +9605,7 @@
         <v>15750434591</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>19</v>
@@ -9073,7 +9620,7 @@
         <v>64</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="2"/>
@@ -9081,7 +9628,7 @@
         <v>15750434591</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>26</v>
@@ -9096,7 +9643,7 @@
         <v>64</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="2"/>
@@ -9104,7 +9651,7 @@
         <v>15750434591</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>26</v>
@@ -9119,7 +9666,7 @@
         <v>64</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="2"/>
@@ -9138,7 +9685,7 @@
         <v>64</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="2"/>
@@ -9146,13 +9693,13 @@
         <v>3704134589</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>14</v>
@@ -9163,7 +9710,7 @@
         <v>64</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="2"/>
@@ -9171,7 +9718,7 @@
         <v>4764866536</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>34</v>
@@ -9186,15 +9733,15 @@
         <v>76</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="2"/>
       <c r="E64" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>15</v>
@@ -9209,7 +9756,7 @@
         <v>76</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="2"/>
@@ -9217,7 +9764,7 @@
         <v>36110647500</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>19</v>
@@ -9232,7 +9779,7 @@
         <v>76</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="2"/>
@@ -9240,7 +9787,7 @@
         <v>36110647500</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>26</v>
@@ -9255,7 +9802,7 @@
         <v>76</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="2"/>
@@ -9263,7 +9810,7 @@
         <v>91653932520</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>34</v>
@@ -9278,7 +9825,7 @@
         <v>76</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="2"/>
@@ -9286,7 +9833,7 @@
         <v>91653932520</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>21</v>
@@ -9303,7 +9850,7 @@
         <v>76</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="2"/>
@@ -9311,7 +9858,7 @@
         <v>91653932520</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>21</v>
@@ -9328,7 +9875,7 @@
         <v>76</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="2"/>
@@ -9336,7 +9883,7 @@
         <v>91653932520</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>19</v>
@@ -9351,7 +9898,7 @@
         <v>76</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="2"/>
@@ -9359,7 +9906,7 @@
         <v>91653932520</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>26</v>
@@ -9374,7 +9921,7 @@
         <v>82</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="2"/>
@@ -9382,7 +9929,7 @@
         <v>50853686572</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>34</v>
@@ -9397,15 +9944,15 @@
         <v>82</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>34</v>
@@ -9420,7 +9967,7 @@
         <v>82</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="2"/>
@@ -9428,10 +9975,10 @@
         <v>94461058549</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1" t="s">
@@ -9443,7 +9990,7 @@
         <v>82</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="2"/>
@@ -9451,7 +9998,7 @@
         <v>94461058549</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>34</v>
@@ -9466,7 +10013,7 @@
         <v>82</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="2"/>
@@ -9474,7 +10021,7 @@
         <v>94461058549</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>15</v>
@@ -9482,6 +10029,102 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="3">
+        <v>10609514792</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18">
+      <c r="A78" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="3">
+        <v>91349958549</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18">
+      <c r="A79" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="3">
+        <v>26146681504</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18">
+      <c r="A80" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="3">
+        <v>91349958549</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -9494,7 +10137,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9503,8 +10146,8 @@
     <col min="1" max="1" style="5" width="13.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="5" width="13.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="5" width="13.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="5" width="13.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="5" width="13.005" customWidth="1" bestFit="1"/>
@@ -9542,10 +10185,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -9553,7 +10196,7 @@
         <v>31340423553</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>19</v>
@@ -9565,10 +10208,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
@@ -9576,13 +10219,13 @@
         <v>5110716552</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>14</v>
@@ -9590,10 +10233,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
@@ -9601,13 +10244,13 @@
         <v>93358997553</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>14</v>
@@ -9615,10 +10258,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
@@ -9626,7 +10269,7 @@
         <v>8541143511</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>19</v>
@@ -9638,10 +10281,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
@@ -9649,7 +10292,7 @@
         <v>8541143511</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>20</v>
@@ -9664,7 +10307,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
@@ -9687,7 +10330,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
@@ -9695,13 +10338,13 @@
         <v>94168865568</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>23</v>
@@ -9712,7 +10355,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
@@ -9720,7 +10363,7 @@
         <v>1897350589</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>15</v>
@@ -9735,7 +10378,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
@@ -9743,7 +10386,7 @@
         <v>37334018591</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>15</v>
@@ -9758,7 +10401,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
@@ -9766,7 +10409,7 @@
         <v>71707778515</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>19</v>
@@ -9781,7 +10424,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
@@ -9802,7 +10445,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
@@ -9823,7 +10466,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
@@ -9831,7 +10474,7 @@
         <v>17734959504</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>21</v>
@@ -9848,7 +10491,7 @@
         <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
@@ -9856,7 +10499,7 @@
         <v>5937324560</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>21</v>
@@ -9873,7 +10516,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
@@ -9881,7 +10524,7 @@
         <v>29494826515</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>15</v>
@@ -9896,7 +10539,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
@@ -9904,7 +10547,7 @@
         <v>29494826515</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>31</v>
@@ -9919,7 +10562,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
@@ -9927,13 +10570,13 @@
         <v>5171413533</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>14</v>
@@ -9944,7 +10587,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
@@ -9952,7 +10595,7 @@
         <v>5171413533</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>15</v>
@@ -9967,7 +10610,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
@@ -9975,7 +10618,7 @@
         <v>55969925500</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>15</v>
@@ -9990,7 +10633,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
@@ -9998,7 +10641,7 @@
         <v>78663202504</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>21</v>
@@ -10015,7 +10658,7 @@
         <v>36</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
@@ -10023,7 +10666,7 @@
         <v>8251550530</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>12</v>
@@ -10040,7 +10683,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
@@ -10048,7 +10691,7 @@
         <v>13523856515</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>12</v>
@@ -10065,7 +10708,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
@@ -10073,7 +10716,7 @@
         <v>21893365549</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>19</v>
@@ -10088,7 +10731,7 @@
         <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
@@ -10107,7 +10750,7 @@
         <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
@@ -10115,7 +10758,7 @@
         <v>39651568534</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>12</v>
@@ -10132,7 +10775,7 @@
         <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
@@ -10140,7 +10783,7 @@
         <v>39651568534</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>34</v>
@@ -10155,7 +10798,7 @@
         <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
@@ -10163,13 +10806,13 @@
         <v>14307936515</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>23</v>
@@ -10180,7 +10823,7 @@
         <v>51</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
@@ -10188,7 +10831,7 @@
         <v>14307936515</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>34</v>
@@ -10203,7 +10846,7 @@
         <v>51</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
@@ -10211,7 +10854,7 @@
         <v>14307936515</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>19</v>
@@ -10226,7 +10869,7 @@
         <v>51</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="2"/>
@@ -10234,7 +10877,7 @@
         <v>14307936515</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>26</v>
@@ -10249,7 +10892,7 @@
         <v>51</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="2"/>
@@ -10257,7 +10900,7 @@
         <v>14307936515</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>26</v>
@@ -10272,7 +10915,7 @@
         <v>51</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="2"/>
@@ -10280,7 +10923,7 @@
         <v>14307936515</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>26</v>
@@ -10295,7 +10938,7 @@
         <v>51</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="2"/>
@@ -10303,7 +10946,7 @@
         <v>14307936515</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>20</v>
@@ -10318,7 +10961,7 @@
         <v>51</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="2"/>
@@ -10326,7 +10969,7 @@
         <v>18380107500</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>26</v>
@@ -10341,7 +10984,7 @@
         <v>51</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="2"/>
@@ -10349,13 +10992,13 @@
         <v>5579882505</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>23</v>
@@ -10366,7 +11009,7 @@
         <v>51</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="2"/>
@@ -10374,7 +11017,7 @@
         <v>5579882505</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>15</v>
@@ -10389,7 +11032,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="2"/>
@@ -10397,7 +11040,7 @@
         <v>14307936515</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>15</v>
@@ -10412,7 +11055,7 @@
         <v>51</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="2"/>
@@ -10420,13 +11063,13 @@
         <v>12440639591</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>14</v>
@@ -10437,7 +11080,7 @@
         <v>59</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -10445,7 +11088,7 @@
         <v>63363720572</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>19</v>
@@ -10460,7 +11103,7 @@
         <v>59</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -10468,7 +11111,7 @@
         <v>63363720572</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>26</v>
@@ -10483,7 +11126,7 @@
         <v>59</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
@@ -10491,7 +11134,7 @@
         <v>63363720572</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>20</v>
@@ -10506,7 +11149,7 @@
         <v>59</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
@@ -10514,13 +11157,13 @@
         <v>67090389553</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>14</v>
@@ -10531,7 +11174,7 @@
         <v>59</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
@@ -10539,7 +11182,7 @@
         <v>67090389553</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>19</v>
@@ -10554,7 +11197,7 @@
         <v>59</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="2"/>
@@ -10562,7 +11205,7 @@
         <v>67090389553</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>20</v>
@@ -10577,7 +11220,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="2"/>
@@ -10585,7 +11228,7 @@
         <v>81223102572</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>34</v>
@@ -10600,7 +11243,7 @@
         <v>59</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="2"/>
@@ -10608,7 +11251,7 @@
         <v>81223102572</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>12</v>
@@ -10625,7 +11268,7 @@
         <v>59</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="2"/>
@@ -10633,7 +11276,7 @@
         <v>81223102572</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -10646,7 +11289,7 @@
         <v>59</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
@@ -10654,13 +11297,13 @@
         <v>81552700500</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>14</v>
@@ -10668,10 +11311,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
       <c r="A50" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="2"/>
@@ -10679,7 +11322,7 @@
         <v>85294004534</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>12</v>
@@ -10693,10 +11336,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
       <c r="A51" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="2"/>
@@ -10704,7 +11347,7 @@
         <v>85294004534</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>15</v>
@@ -10716,10 +11359,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
       <c r="A52" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="2"/>
@@ -10727,7 +11370,7 @@
         <v>85294004534</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>20</v>
@@ -10739,10 +11382,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
       <c r="A53" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="2"/>
@@ -10750,13 +11393,13 @@
         <v>8776509508</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>14</v>
@@ -10764,10 +11407,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
       <c r="A54" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="2"/>
@@ -10775,7 +11418,7 @@
         <v>63367025534</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>26</v>
@@ -10787,10 +11430,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
       <c r="A55" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="2"/>
@@ -10798,13 +11441,13 @@
         <v>24052841549</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>14</v>
@@ -10812,10 +11455,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
       <c r="A56" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="2"/>
@@ -10823,7 +11466,7 @@
         <v>24052841549</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>15</v>
@@ -10836,7 +11479,7 @@
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="2"/>
@@ -10853,7 +11496,7 @@
         <v>64</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="2"/>
@@ -10861,13 +11504,13 @@
         <v>51378701534</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>14</v>
@@ -10878,7 +11521,7 @@
         <v>64</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="2"/>
@@ -10895,7 +11538,7 @@
         <v>64</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="2"/>
@@ -10903,7 +11546,7 @@
         <v>51378701534</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>31</v>
@@ -10918,7 +11561,7 @@
         <v>64</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="2"/>
@@ -10926,7 +11569,7 @@
         <v>41004337515</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>15</v>
@@ -10941,7 +11584,7 @@
         <v>64</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="2"/>
@@ -10949,7 +11592,7 @@
         <v>40700356568</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>34</v>
@@ -10964,7 +11607,7 @@
         <v>64</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="2"/>
@@ -10972,7 +11615,7 @@
         <v>40700356568</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>12</v>
@@ -10989,7 +11632,7 @@
         <v>68</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="2"/>
@@ -10997,7 +11640,7 @@
         <v>19460902553</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>15</v>
@@ -11012,7 +11655,7 @@
         <v>68</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="2"/>
@@ -11020,13 +11663,13 @@
         <v>86254937506</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>14</v>
@@ -11037,7 +11680,7 @@
         <v>68</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="2"/>
@@ -11045,7 +11688,7 @@
         <v>86254937506</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>15</v>
@@ -11060,7 +11703,7 @@
         <v>68</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="2"/>
@@ -11068,7 +11711,7 @@
         <v>27444341591</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>12</v>
@@ -11085,7 +11728,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="2"/>
@@ -11093,13 +11736,13 @@
         <v>86159229508</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>23</v>
@@ -11110,7 +11753,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="2"/>
@@ -11118,13 +11761,13 @@
         <v>88163083549</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>23</v>
@@ -11135,7 +11778,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="2"/>
@@ -11143,13 +11786,13 @@
         <v>88163083549</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>14</v>
@@ -11160,7 +11803,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="2"/>
@@ -11168,13 +11811,13 @@
         <v>16570634534</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>14</v>
@@ -11185,7 +11828,7 @@
         <v>68</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="3">
@@ -11195,7 +11838,7 @@
         <v>6394293512</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>15</v>
@@ -11210,7 +11853,7 @@
         <v>68</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="2"/>
@@ -11218,7 +11861,7 @@
         <v>61498122515</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>12</v>
@@ -11235,7 +11878,7 @@
         <v>76</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="3">
@@ -11245,7 +11888,7 @@
         <v>81523386568</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>19</v>
@@ -11260,7 +11903,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="3">
@@ -11270,7 +11913,7 @@
         <v>81523386568</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>26</v>
@@ -11285,7 +11928,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="3">
@@ -11295,7 +11938,7 @@
         <v>81523386568</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>20</v>
@@ -11310,7 +11953,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="3">
@@ -11320,13 +11963,13 @@
         <v>81270682504</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>14</v>
@@ -11337,7 +11980,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="3">
@@ -11347,13 +11990,13 @@
         <v>2908515563</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>14</v>
@@ -11364,7 +12007,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="3">
@@ -11374,7 +12017,7 @@
         <v>1729730582</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>34</v>
@@ -11389,7 +12032,7 @@
         <v>76</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="3">
@@ -11399,7 +12042,7 @@
         <v>1729730582</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>21</v>
@@ -11416,7 +12059,7 @@
         <v>76</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="3">
@@ -11426,7 +12069,7 @@
         <v>1729730582</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>21</v>
@@ -11443,7 +12086,7 @@
         <v>76</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="3">
@@ -11453,7 +12096,7 @@
         <v>1729730582</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>15</v>
@@ -11468,7 +12111,7 @@
         <v>76</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="2"/>
@@ -11476,7 +12119,7 @@
         <v>6172369504</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>26</v>
@@ -11491,7 +12134,7 @@
         <v>76</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="3">
@@ -11501,13 +12144,13 @@
         <v>28226011515</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>23</v>
@@ -11515,19 +12158,56 @@
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18">
       <c r="A85" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C85" s="1"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
+      <c r="D85" s="3">
+        <v>71991510026</v>
+      </c>
+      <c r="E85" s="3">
+        <v>826676596</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="I85" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18">
+      <c r="A86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="3">
+        <v>71986314129</v>
+      </c>
+      <c r="E86" s="3">
+        <v>7240326578</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -11540,7 +12220,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11588,10 +12268,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -11609,10 +12289,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -11630,10 +12310,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -11651,10 +12331,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -11670,10 +12350,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -11693,10 +12373,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -11716,10 +12396,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -11740,7 +12420,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -11761,7 +12441,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -11782,7 +12462,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -11803,7 +12483,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -11824,7 +12504,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -11836,7 +12516,7 @@
         <v>21</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>23</v>
@@ -11847,7 +12527,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -11868,7 +12548,7 @@
         <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -11891,7 +12571,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -11914,7 +12594,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -11937,7 +12617,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -11958,7 +12638,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -11979,22 +12659,22 @@
         <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
@@ -12002,7 +12682,7 @@
         <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -12025,7 +12705,7 @@
         <v>36</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -12048,7 +12728,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -12071,7 +12751,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -12092,7 +12772,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -12113,7 +12793,7 @@
         <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -12134,7 +12814,7 @@
         <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -12157,7 +12837,7 @@
         <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -12178,7 +12858,7 @@
         <v>36</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -12199,7 +12879,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -12220,7 +12900,7 @@
         <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -12241,7 +12921,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -12262,7 +12942,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -12285,7 +12965,7 @@
         <v>45</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -12306,7 +12986,7 @@
         <v>45</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -12327,7 +13007,7 @@
         <v>45</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -12348,7 +13028,7 @@
         <v>45</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -12371,7 +13051,7 @@
         <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -12394,7 +13074,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -12417,12 +13097,12 @@
         <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
@@ -12438,7 +13118,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -12459,7 +13139,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -12480,7 +13160,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -12499,7 +13179,7 @@
         <v>51</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -12522,7 +13202,7 @@
         <v>51</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -12545,7 +13225,7 @@
         <v>51</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -12566,7 +13246,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -12587,7 +13267,7 @@
         <v>51</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -12610,7 +13290,7 @@
         <v>51</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -12631,7 +13311,7 @@
         <v>59</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -12654,7 +13334,7 @@
         <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -12675,7 +13355,7 @@
         <v>59</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -12698,7 +13378,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -12719,7 +13399,7 @@
         <v>59</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -12742,7 +13422,7 @@
         <v>59</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -12765,7 +13445,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -12786,7 +13466,7 @@
         <v>59</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -12807,7 +13487,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -12828,7 +13508,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -12849,7 +13529,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -12870,7 +13550,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -12891,7 +13571,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -12912,7 +13592,7 @@
         <v>59</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -12933,7 +13613,7 @@
         <v>59</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -12954,7 +13634,7 @@
         <v>59</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -12972,10 +13652,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
       <c r="A66" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -12993,10 +13673,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
       <c r="A67" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -13014,10 +13694,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
       <c r="A68" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -13035,10 +13715,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
       <c r="A69" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -13056,10 +13736,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
       <c r="A70" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -13079,10 +13759,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
       <c r="A71" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -13100,10 +13780,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18">
       <c r="A72" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -13123,10 +13803,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18">
       <c r="A73" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -13144,10 +13824,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
       <c r="A74" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -13168,7 +13848,7 @@
         <v>68</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -13189,7 +13869,7 @@
         <v>68</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -13210,7 +13890,7 @@
         <v>68</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -13231,7 +13911,7 @@
         <v>68</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -13252,7 +13932,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -13275,7 +13955,7 @@
         <v>76</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -13296,7 +13976,7 @@
         <v>76</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -13319,7 +13999,7 @@
         <v>76</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -13340,7 +14020,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -13361,7 +14041,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -13382,7 +14062,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -13403,7 +14083,7 @@
         <v>82</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -13424,7 +14104,7 @@
         <v>82</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -13436,7 +14116,7 @@
         <v>12</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>23</v>
@@ -13447,7 +14127,7 @@
         <v>82</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -13468,7 +14148,7 @@
         <v>82</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -13489,7 +14169,7 @@
         <v>82</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -13512,7 +14192,7 @@
         <v>82</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -13533,7 +14213,7 @@
         <v>82</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -13546,6 +14226,258 @@
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18">
+      <c r="A93" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="3">
+        <v>74078690572</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18">
+      <c r="A94" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="3">
+        <v>74078690572</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18">
+      <c r="A95" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="3">
+        <v>74078690572</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18">
+      <c r="A96" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="3">
+        <v>36464473549</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18">
+      <c r="A97" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="3">
+        <v>36464473549</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18">
+      <c r="A98" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="3">
+        <v>11933166509</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18">
+      <c r="A99" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="3">
+        <v>13649647591</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18">
+      <c r="A100" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="3">
+        <v>90136101534</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18">
+      <c r="A101" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="3">
+        <v>83688862520</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18">
+      <c r="A102" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="3">
+        <v>83688862520</v>
+      </c>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18">
+      <c r="A103" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="3">
+        <v>83688862520</v>
+      </c>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18">
+      <c r="A104" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="3">
+        <v>83688862520</v>
+      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -13574,7 +14506,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15812,6 +16744,188 @@
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18">
+      <c r="A73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="3">
+        <v>71999831648</v>
+      </c>
+      <c r="E73" s="3">
+        <v>5320305320</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
+      <c r="A74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="3">
+        <v>71999831648</v>
+      </c>
+      <c r="E74" s="3">
+        <v>5320305320</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18">
+      <c r="A75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="3">
+        <v>71999831648</v>
+      </c>
+      <c r="E75" s="3">
+        <v>5320305320</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18">
+      <c r="A76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="3">
+        <v>71999389127</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3530156523</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="3">
+        <v>71999389127</v>
+      </c>
+      <c r="E77" s="3">
+        <v>3530156523</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18">
+      <c r="A78" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="3">
+        <v>74999658538</v>
+      </c>
+      <c r="E78" s="3">
+        <v>27490837880</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
